--- a/eclipse-workspace/javaProject/src/com/Excel/File5.xlsx
+++ b/eclipse-workspace/javaProject/src/com/Excel/File5.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULI RAJU\eclipse-workspace\javaProject\src\com\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULI RAJU\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CE8691AB-CADA-410D-991A-56EA3B56F598}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916D8B1-60B1-4495-9DED-ED9B25A909DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{5065E832-84E7-4182-AB37-A3951356FF10}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CFC72748-C13B-4B5D-94DA-F2F8AA54C5D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,122 +36,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
-  <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>Adelaide *</t>
-  </si>
-  <si>
-    <t>Algiers</t>
-  </si>
-  <si>
-    <t>Almaty</t>
-  </si>
-  <si>
-    <t>Amman</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Anadyr</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>Antananarivo</t>
-  </si>
-  <si>
-    <t>Asuncion *</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Auckland *</t>
-  </si>
-  <si>
-    <t>Baghdad</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Beirut</t>
-  </si>
-  <si>
-    <t>Belgrade</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Bogota</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Brasilia</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Calgary</t>
-  </si>
-  <si>
-    <t>Canberra *</t>
-  </si>
-  <si>
-    <t>Cape Town</t>
-  </si>
-  <si>
-    <t>Caracas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+  <si>
+    <t>Actual_LastName</t>
+  </si>
+  <si>
+    <t>LastName_TestResult</t>
+  </si>
+  <si>
+    <t>Actual_EmployeeId</t>
+  </si>
+  <si>
+    <t>Employee ID Result</t>
+  </si>
+  <si>
+    <t>Expected_LogInPageText</t>
+  </si>
+  <si>
+    <t>Actual_LogInPageText</t>
+  </si>
+  <si>
+    <t>Text Test Result</t>
+  </si>
+  <si>
+    <t>Expected_LogInPageTitle</t>
+  </si>
+  <si>
+    <t>Actual_LogInPageTitle</t>
+  </si>
+  <si>
+    <t>Title Test Result</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Expected_HomePageText</t>
+  </si>
+  <si>
+    <t>Actual_HomePageText</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Expected_AddEmployeePageText</t>
+  </si>
+  <si>
+    <t>Actual_AddEmployeePageText</t>
+  </si>
+  <si>
+    <t>AddEmployee Text Test Result</t>
+  </si>
+  <si>
+    <t>Expected_FirstName</t>
+  </si>
+  <si>
+    <t>Expected_MiddleName</t>
+  </si>
+  <si>
+    <t>Expected_LastName</t>
+  </si>
+  <si>
+    <t>Expected_Employee_ID</t>
+  </si>
+  <si>
+    <t>Expected_PersonalDetailsPageText</t>
+  </si>
+  <si>
+    <t>Actual_PersonalDetailsPageText</t>
+  </si>
+  <si>
+    <t>Personal Details Page Test Result</t>
+  </si>
+  <si>
+    <t>Actual_FirstName</t>
+  </si>
+  <si>
+    <t>FirstName_TestResult</t>
+  </si>
+  <si>
+    <t>Actual_MiddleName</t>
+  </si>
+  <si>
+    <t>MiddleName_TestResult</t>
+  </si>
+  <si>
+    <t>LOGIN Panel</t>
+  </si>
+  <si>
+    <t>orangeHRM</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>give your test data</t>
+  </si>
+  <si>
+    <t>give your test Data</t>
+  </si>
+  <si>
+    <t>get from Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +161,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,16 +208,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,10 +247,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -241,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -293,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,21 +448,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -435,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -487,213 +531,238 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme 2013 - 2022" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6088ED9-9DEC-4838-B698-EAAE072FEEF5}">
-  <dimension ref="A2:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB7831-D36A-4325-B114-025B3F81417F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F820B8-23AC-4C88-9593-F2198EA73843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E64375-637E-41C3-A89E-C6809B2BD446}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC857E-966C-4BD8-AC5B-D2D8AD6BB0EE}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>